--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_5_sawtooth_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_5_sawtooth_01_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.93000000000046</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.008557060290358076</v>
+        <v>0.0001302588585928577</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01941601205786644</v>
+        <v>0.0009332439980905553</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>4.810291024227061</v>
+        <v>5.879971408910986</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.8085215402090755, 8.812060508245047]</t>
+          <t>[2.8211328524526813, 8.938809965369291]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.01868575244622805</v>
+        <v>0.0001933446647015558</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01868575244622805</v>
+        <v>0.0003866893294031115</v>
       </c>
       <c r="O2" t="n">
-        <v>-2.239053022378311</v>
+        <v>-1.622684493746079</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.993789996213697, -1.484316048542925]</t>
+          <t>[-2.264210921506157, -0.9811580659860013]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1.671738947273127e-08</v>
+        <v>1.207961684901449e-06</v>
       </c>
       <c r="R2" t="n">
-        <v>1.671738947273127e-08</v>
+        <v>2.415923369802897e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>14.1171560138576</v>
+        <v>11.97164816470282</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[11.99683422740523, 16.23747780030998]</t>
+          <t>[10.091494019360585, 13.851802310045063]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>8.883963963964128</v>
+        <v>6.712132132132293</v>
       </c>
       <c r="X2" t="n">
-        <v>5.889369369369478</v>
+        <v>4.058498498498595</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.87855855855878</v>
+        <v>9.365765765765991</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.97000000000046</v>
+        <v>23.55000000000024</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>8.851135061627158e-05</v>
+        <v>7.076691335794472e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0009662817742942902</v>
+        <v>0.0009332439980905553</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>6.017180965640164</v>
+        <v>5.474576045354009</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[2.2404654810921336, 9.793896450188194]</t>
+          <t>[2.188369153260293, 8.760782937447726]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.001891785329926288</v>
+        <v>0.00117068570245249</v>
       </c>
       <c r="N3" t="n">
-        <v>0.003783570659852575</v>
+        <v>0.00117068570245249</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.390000417145388</v>
+        <v>0.8993948938205003</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-2.956053147521928, -1.8239476867688484]</t>
+          <t>[0.3333421634439624, 1.4654476241970382]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>3.996802888650564e-15</v>
+        <v>0.001945756057384118</v>
       </c>
       <c r="R3" t="n">
-        <v>7.993605777301127e-15</v>
+        <v>0.001945756057384118</v>
       </c>
       <c r="S3" t="n">
-        <v>14.11367017906912</v>
+        <v>11.84520998809694</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[12.183010907775962, 16.04432945036228]</t>
+          <t>[10.144418897039028, 13.546001079154845]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>9.498098098098275</v>
+        <v>20.17897897897919</v>
       </c>
       <c r="X3" t="n">
-        <v>7.248548548548682</v>
+        <v>18.05735735735755</v>
       </c>
       <c r="Y3" t="n">
-        <v>11.74764764764787</v>
+        <v>22.30060060060083</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_5_sawtooth_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_5_sawtooth_01_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.99000000000062</v>
+        <v>25.8300000000006</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0001302588585928577</v>
+        <v>0.0002905827454247056</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0009332439980905553</v>
+        <v>0.00111051161464274</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>5.879971408910986</v>
+        <v>6.270563251308301</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[2.8211328524526813, 8.938809965369291]</t>
+          <t>[2.3091509784764295, 10.231975524140172]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.0001933446647015558</v>
+        <v>0.002043517861379351</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0003866893294031115</v>
+        <v>0.002434535079123723</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.622684493746079</v>
+        <v>-1.169842309444848</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.264210921506157, -0.9811580659860013]</t>
+          <t>[-1.8742634850245405, -0.4654211338651546]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1.207961684901449e-06</v>
+        <v>0.001228470946283089</v>
       </c>
       <c r="R2" t="n">
-        <v>2.415923369802897e-06</v>
+        <v>0.001228470946283089</v>
       </c>
       <c r="S2" t="n">
-        <v>11.97164816470282</v>
+        <v>13.83597855336646</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[10.091494019360585, 13.851802310045063]</t>
+          <t>[11.703948741328107, 15.968008365404804]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>6.712132132132293</v>
+        <v>4.809189189189297</v>
       </c>
       <c r="X2" t="n">
-        <v>4.058498498498595</v>
+        <v>1.913333333333376</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.365765765765991</v>
+        <v>7.705045045045218</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.55000000000024</v>
+        <v>25.13000000000049</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>7.076691335794472e-05</v>
+        <v>0.0001134084416264391</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0009332439980905553</v>
+        <v>0.001085791676385611</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>5.474576045354009</v>
+        <v>5.255526296451817</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[2.188369153260293, 8.760782937447726]</t>
+          <t>[1.8734877910799357, 8.6375648018237]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.00117068570245249</v>
+        <v>0.002434535079123723</v>
       </c>
       <c r="N3" t="n">
-        <v>0.00117068570245249</v>
+        <v>0.002434535079123723</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8993948938205003</v>
+        <v>-2.377421467581465</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.3333421634439624, 1.4654476241970382]</t>
+          <t>[-2.9434741979580044, -1.811368737204925]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.001945756057384118</v>
+        <v>5.329070518200751e-15</v>
       </c>
       <c r="R3" t="n">
-        <v>0.001945756057384118</v>
+        <v>1.06581410364015e-14</v>
       </c>
       <c r="S3" t="n">
-        <v>11.84520998809694</v>
+        <v>13.13203935203306</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[10.144418897039028, 13.546001079154845]</t>
+          <t>[11.417726822286905, 14.846351881779217]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>20.17897897897919</v>
+        <v>9.508648648648832</v>
       </c>
       <c r="X3" t="n">
-        <v>18.05735735735755</v>
+        <v>7.244684684684822</v>
       </c>
       <c r="Y3" t="n">
-        <v>22.30060060060083</v>
+        <v>11.77261261261284</v>
       </c>
     </row>
   </sheetData>
